--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.29278838190522094, 0.2640917839434095, 0.24063528421058594, 0.2813370346245995, 0.427699777731404, 0.24903083497060094, 0.26330330810493185, 0.2104447099041049, 0.22691659705158926, 0.19217838405478954, 0.21085481973948927, 0.2060740768499664, 0.21537010146159458, 0.21317930411859284, 0.22702309931298761, 0.20199523936814356, 0.21218210274160576, 0.19733029936594387, 0.1917434413390234]</t>
+    <t>[1.0, 0.3025720289175844, 0.2721670726266026, 0.25387086147244425, 0.30050729359130185, 0.4410391118631507, 0.26534041264157804, 0.2732724434404467, 0.22440448698739146, 0.24557266031483727, 0.206327595248993, 0.2295578942951122, 0.21843307567942796, 0.2319503637838938, 0.2222817049018749, 0.242291518635085, 0.21447296949601752, 0.22601426320293905, 0.20917647153927402, 0.19866297734490548]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.29967478742019327, 0.26690121150700197, 0.25017761181806236, 0.2759685026442924, 0.29889066204178616, 0.22603799310326145, 0.23544700940247695, 0.20143368136531642, 0.18407617526580244, 0.16507575976844702, 0.2011179015901841, 0.179878674394112, 0.21930186869187018, 0.1788068811073392, 0.20134892678774097, 0.18611608901615398, 0.19070907568631035, 0.16875710843736477, 0.1720767415559199]</t>
+    <t>[1.0, 0.30828147383071797, 0.2740333890296752, 0.2557075253571407, 0.28732205052130044, 0.310155596599058, 0.23979776807310726, 0.24939082546093957, 0.21098757855133077, 0.1897614264675183, 0.17233899140388115, 0.20862399803657924, 0.18794873846187962, 0.23474574598500886, 0.1835548567183007, 0.21264135532071696, 0.19388997426013266, 0.19400845199018657, 0.1739831612513745, 0.1772967009857266]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.011898936031383324, -0.021975926542839037, -0.05257240043896196, -0.03317390346680604, 0.27708636617573257, 0.009420505452030622, 0.020723024687764692, -0.028520187597896568, -0.02760289349518149, -0.0696048190572498, -0.052961252266767865, -0.032793805453038616, -0.020045889852283002, 0.030589052817039872, 0.006378747422094489, -0.009691411091539004, -0.04997087799849626, -0.03307356352924198, -0.021465635569538646]</t>
+    <t>[0.9999999999999999, 0.014215798214269885, -0.032768154212978025, -0.04873804224200899, -0.02553423179016087, 0.27592921156337985, 0.0169560882247787, 0.01944603049899669, -0.017690299993236593, -0.016038632757813334, -0.07182011410421124, -0.04675532592617912, -0.030468609700310293, -0.022758209798758023, 0.03688400244989628, 0.004667543669559729, -0.005554312904124156, -0.057569123755357235, -0.0378993359352002, -0.02451952382228693]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.012733558155536244, -0.021763575867747006, -0.0519276011225157, -0.032574074425345365, 0.27669462882254287, 0.010027056122896645, 0.020932877884655955, -0.028343979385699724, -0.02739784118024783, -0.06923524771815101, -0.052701468753124654, -0.032532714159162555, -0.01983508939455911, 0.031113000895776816, 0.006691967170703353, -0.00941954160764406, -0.05015974225923225, -0.03269192427532032, -0.021666522136923605]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.0346661670674087, 0.00025015938478549976, -0.022775464990105743, 0.007372006398884866, 0.2039422641400063, -0.0006191242270961792, 0.016784347528273288, -0.03264233278652914, -0.037278361644180254, -0.05552982006038864, -0.047623916186573384, -0.042746386845827926, -0.034813126608418045, 0.02234376603175594, -0.007507341404833638, -0.019633275092104593, -0.03799993293396994, -0.022875004106048466, -0.023091956315510326]</t>
+    <t>[0.9999999999999999, 0.01498808057504423, -0.032586889522347874, -0.047963438198307715, -0.024673982274183617, 0.27477191812059043, 0.017410278892811937, 0.019537577642349934, -0.017604227812687466, -0.015559555206280249, -0.07115955449377741, -0.046284222786104424, -0.029810744557196536, -0.022429057744130152, 0.03759326794842329, 0.005345840748064989, -0.005354193194266831, -0.05806082329755134, -0.0372930962233834, -0.024651293113016035]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.03225010707379681, -0.008094478047663346, -0.01950175328116482, 0.01793112570211922, 0.20820212472771965, 0.012480849181006164, 0.011057803170610744, -0.03046301382105047, -0.022026219216421592, -0.055040302910202045, -0.041447480072262684, -0.04218421371892634, -0.035872962545917576, 0.02485395409233621, -0.00489371330339512, -0.014304444734273407, -0.03961969261708188, -0.029916716436765887, -0.029049664088345084]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005319618768002526</v>
+        <v>0.01109759028167569</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7955196571282706</v>
+        <v>0.7954978562199575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.104108671134825</v>
+        <v>3.467916129465851</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9374815688587438</v>
+        <v>0.9142000749344323</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5403704768840769</v>
+        <v>-0.5499784532826222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7339525832513137</v>
+        <v>0.7409012743822112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.358893464159824</v>
+        <v>2.702539947776487</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.5381819314531702</v>
+        <v>0.5588548102736736</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7245217596499647</v>
+        <v>0.7266939026303234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1.85691357930549</v>
+        <v>2.035209533783421</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005991531285136715</v>
+        <v>-0.004917013543116382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01516471109045235</v>
+        <v>0.01382885587038979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08559779723342388</v>
+        <v>0.08404298000164705</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9144022027665758</v>
+        <v>0.9159570199779029</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01098478472881246</v>
+        <v>-0.01148342628388638</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01514698652571012</v>
+        <v>0.01394289010722019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07685128173473692</v>
+        <v>0.07129698137505622</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.915617975270054</v>
+        <v>0.9173905446124516</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01506148598800026</v>
+        <v>0.02262496324655447</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002463604226266578</v>
+        <v>0.001021012211469371</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01146451022182042</v>
+        <v>0.009982672908142485</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09402697998521063</v>
+        <v>0.09398901493423498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9167924260187447</v>
+        <v>0.9187737720627062</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02163882232463583</v>
+        <v>-0.02552556613595806</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.786043615186296</v>
+        <v>0.7838241161838281</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.3025720289175844, 0.2721670726266026, 0.25387086147244425, 0.30050729359130185, 0.4410391118631507, 0.26534041264157804, 0.2732724434404467, 0.22440448698739146, 0.24557266031483727, 0.206327595248993, 0.2295578942951122, 0.21843307567942796, 0.2319503637838938, 0.2222817049018749, 0.242291518635085, 0.21447296949601752, 0.22601426320293905, 0.20917647153927402, 0.19866297734490548]</t>
+    <t>[1.0, 0.03564623365737628, -0.04976292463965096, -0.09513492243813464, -0.0780135001702759, 0.04512422601382663, 0.02869501105589732, 0.05104495453266105, 0.010045879271787751, 0.006421806958115386, -0.01390856119209385, -0.05862749443735283, -0.01797437509441243, 0.003360429550374807, 0.061842858814485174, 0.037868044134537114, -0.004120892414323046, -0.029968032245486456, -0.046788926839067546, -0.004517349322110577]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.30828147383071797, 0.2740333890296752, 0.2557075253571407, 0.28732205052130044, 0.310155596599058, 0.23979776807310726, 0.24939082546093957, 0.21098757855133077, 0.1897614264675183, 0.17233899140388115, 0.20862399803657924, 0.18794873846187962, 0.23474574598500886, 0.1835548567183007, 0.21264135532071696, 0.19388997426013266, 0.19400845199018657, 0.1739831612513745, 0.1772967009857266]</t>
+    <t>[1.0, 0.1005583244946701, -0.0033006177235156866, 0.012032751791994898, 0.0038070452406806727, 0.0034889842893371997, -0.012894027705417617, 0.024529143340206748, -0.006286581110110385, -0.029482700629761497, -0.007907859454282897, -0.03164763329861033, 0.0035084880707617304, -0.007644827993641003, 0.01286451460552699, 0.010663892768255044, 0.008296078400547411, -0.005567066780091306, -0.01724534853220375, 0.009857257540119414]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.014215798214269885, -0.032768154212978025, -0.04873804224200899, -0.02553423179016087, 0.27592921156337985, 0.0169560882247787, 0.01944603049899669, -0.017690299993236593, -0.016038632757813334, -0.07182011410421124, -0.04675532592617912, -0.030468609700310293, -0.022758209798758023, 0.03688400244989628, 0.004667543669559729, -0.005554312904124156, -0.057569123755357235, -0.0378993359352002, -0.02451952382228693]</t>
+    <t>[1.0, -0.0012218618642324186, -0.03854571935315319, -0.08050302102553594, -0.08948667694000302, 0.05789108169828436, 0.02015598037768332, 0.050920649085659235, 0.007879646456085522, 0.012774177981537573, -0.027219973500138175, -0.05823674657093854, -0.013438638779686315, 0.003469158622862317, 0.061403784376428884, 0.03216206813663422, 0.009551467403641708, -0.03982963560937029, -0.04133427500069295, -0.004183119619358411]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.01498808057504423, -0.032586889522347874, -0.047963438198307715, -0.024673982274183617, 0.27477191812059043, 0.017410278892811937, 0.019537577642349934, -0.017604227812687466, -0.015559555206280249, -0.07115955449377741, -0.046284222786104424, -0.029810744557196536, -0.022429057744130152, 0.03759326794842329, 0.005345840748064989, -0.005354193194266831, -0.05806082329755134, -0.0372930962233834, -0.024651293113016035]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03225010707379681, -0.008094478047663346, -0.01950175328116482, 0.01793112570211922, 0.20820212472771965, 0.012480849181006164, 0.011057803170610744, -0.03046301382105047, -0.022026219216421592, -0.055040302910202045, -0.041447480072262684, -0.04218421371892634, -0.035872962545917576, 0.02485395409233621, -0.00489371330339512, -0.014304444734273407, -0.03961969261708188, -0.029916716436765887, -0.029049664088345084]</t>
+    <t>[0.9999999999999998, -0.0010073791534656582, -0.03853290282442895, -0.08060476262221215, -0.0895434994307278, 0.057636838424661524, 0.02052564447657671, 0.05109678197350378, 0.007936922665196218, 0.012448539965017054, -0.02742792392836405, -0.058346202226263306, -0.013014366150564545, 0.0036206434956232406, 0.06128489758827131, 0.032106043404878395, 0.00967159383880573, -0.039888243343761114, -0.041443412775109795, -0.004050248934138563]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.00039690472789153666, -0.05006247197088025, -0.09357214280955617, -0.0781956366378188, 0.04671096906923515, 0.026506634098402388, 0.05124155187022357, 0.007988591435446864, 0.006588003242049092, -0.014654973911823566, -0.058753404853894714, -0.016109912803037252, 0.0023788615285235157, 0.06171479993223185, 0.03669935493715551, -0.0038563817503224577, -0.029714641819497543, -0.04707105663136452, -0.004073870981220352]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01109759028167569</v>
+        <v>0.003255483671362861</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7954978562199575</v>
+        <v>0.7908842229741908</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.467916129465851</v>
+        <v>0.1046099214680111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5499784532826222</v>
+        <v>-0.1701720019737109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7409012743822112</v>
+        <v>0.6038208696320441</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.702539947776487</v>
+        <v>0.06207413713487229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.5588548102736736</v>
+        <v>0.1736986288907789</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7266939026303234</v>
+        <v>0.5888753153466679</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.035209533783421</v>
+        <v>0.06453489138270903</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.004917013543116382</v>
+        <v>-5.104153231234426E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01382885587038979</v>
+        <v>0.111236535563846</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08404298000164705</v>
+        <v>0.04715544375455139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9159570199779029</v>
+        <v>3.120092914657768E-08</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01148342628388638</v>
+        <v>0.0002355363274201636</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01394289010722019</v>
+        <v>0.1112582581923891</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07129698137505622</v>
+        <v>0.05408906711830145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9173905446124516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02262496324655447</v>
+        <v>-0.01431547116041601</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001021012211469371</v>
+        <v>0.003179021498198714</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.009982672908142485</v>
+        <v>0.1006705903290248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09398901493423498</v>
+        <v>0.04796953377191113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9187737720627062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02552556613595806</v>
+        <v>-0.02130791236529418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7838241161838281</v>
+        <v>0.7905020366613943</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.04440258013970246, -0.05402675307690773, -0.10163998307313972, -0.08527247886478556, 0.04368652295358633, 0.03417345044347591, 0.05838421956151992, 0.01338782447342447, -0.005828716763711538, -0.022985897977618866, -0.050836135523707054, -0.0067499455933739665, 0.016516898947777636, 0.05789568077276353, 0.017249975348827457, -0.007118895894898142, -0.036768175401124745, -0.04622925302787223, 0.0006588341116922782]</t>
+    <t>[0.9999999999999999, 0.27650242874803493, 0.2473059352921494, 0.22368876536446608, 0.2650651106805935, 0.4148231065895015, 0.23266783219559437, 0.24716826330919148, 0.19328402907279793, 0.21036520904878678, 0.17430397655654778, 0.19441324726301387, 0.18868717834654988, 0.1990158199579622, 0.1956654914708275, 0.2097120307742413, 0.1855564931629684, 0.19637246978488584, 0.17975199203381023, 0.17428121219450082]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.10797432368222178, -0.011752258806783822, 0.012008579325362942, 0.0010926734612720008, 0.0073727973700573254, 0.0006681693510423342, 0.020115426599755536, -0.002069208492764339, -0.03462054231978071, -0.005343375069676318, -0.02145616077725622, -0.0066654376538889315, -0.013046669597982239, 0.012045352946030112, -0.0003582017979202785, 0.010465372510568394, -0.014523043255757968, -0.018666147346589303, 0.010035970953803415]</t>
+    <t>[1.0, 0.2865652493659193, 0.2536966090007755, 0.23647302114734567, 0.26388517285298846, 0.28534726148662526, 0.2126390971948123, 0.22206088841954952, 0.18710997547316743, 0.17013249022154797, 0.1504470990959502, 0.18788480141933467, 0.1667622997722943, 0.20646199863349443, 0.16459115766088608, 0.18758420582371566, 0.1713078106224247, 0.17614104180344584, 0.1544029417985861, 0.15730089318608456]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.0013229175751324855, -0.04183571065010122, -0.09364888477236553, -0.0957124014272151, 0.06278368027920565, 0.024121415011571137, 0.05344129690342481, 0.011214552528326012, -0.001911676454510632, -0.029843506342649092, -0.046851708257365635, -0.005248189796862031, 0.016124328234831533, 0.05113666760119237, 0.01912588621879115, 0.0008763082336352132, -0.03734341426549902, -0.04475005666779212, 0.0009753528278936589]</t>
+    <t>[1.0, 0.013033516628285575, -0.023964128964601913, -0.05253996601624041, -0.03387497693178653, 0.27604735862502033, 0.015955780864374405, 0.01821931347351153, -0.030449947667353167, -0.027320762833466457, -0.0699261422457061, -0.04847873239455806, -0.03288594114235811, -0.020915784563769493, 0.030542870029760333, 0.00495460224119161, -0.009515930843045126, -0.04552672124974095, -0.0317197586874379, -0.021228542782399905]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.001952697121752079, -0.041908590375092494, -0.0937405790572653, -0.09552176845812377, 0.06215623503907369, 0.025329994616952532, 0.05337056537125354, 0.011170879094797817, -0.002725208406834096, -0.03043208188448179, -0.04683377706892151, -0.004462474728433635, 0.016748921279207008, 0.050451254118666744, 0.019298140634988574, 0.001051298160112694, -0.03785846883718911, -0.044536203614713485, 0.0013555557882917785]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.0018710209648214423, -0.054241568490543415, -0.09912325518212632, -0.08565594071600498, 0.04523828122657975, 0.03063236827064228, 0.05717872110784851, 0.011639978789121173, -0.005611972494830341, -0.023970477029387392, -0.05025225679688627, -0.005353881534915868, 0.015360927966725106, 0.0578666244287125, 0.01652428916411683, -0.00588220090251431, -0.03641384586995194, -0.046127375221013574, 0.0013067979030569122]</t>
+    <t>[1.0, 0.013934789526919726, -0.023613640150222596, -0.051903422328022225, -0.03325942608738673, 0.275855881748233, 0.01663166510376376, 0.01853587090887995, -0.030261012496108363, -0.026995927541476665, -0.06947620845214035, -0.04816459290216756, -0.03257512017260114, -0.02070943480622141, 0.031061685139023108, 0.0053927829773057195, -0.009149522523800737, -0.04554608681735547, -0.031238995389322486, -0.02119675418038461]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.03271258947821372, 0.0012238041781187107, -0.023441013082385363, 0.005368262609537936, 0.20493357806707266, 0.0027742686247121968, 0.01200685294674964, -0.03481047948004237, -0.036417019883907956, -0.05873577257063197, -0.04297618931346965, -0.04466499820083468, -0.03604702878248634, 0.02029002251354862, -0.009950318283285764, -0.019808412445069697, -0.036840995848426726, -0.023401635521485505, -0.020653724902000105]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002183819018025376</v>
+        <v>0.005754839538796336</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7918825932297882</v>
+        <v>0.795922957307973</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1061541342857562</v>
+        <v>3.347412037893251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1688358423450285</v>
+        <v>-0.5885009830465028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6099573399730793</v>
+        <v>0.7262573834541782</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06245314016823012</v>
+        <v>2.530991530374362</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1763565710010731</v>
+        <v>0.5871451601940401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5850983621136508</v>
+        <v>0.7156586940581252</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06719084323047587</v>
+        <v>1.992191975033456</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.557273863523563E-05</v>
+        <v>-0.008841838364523173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1113461741088913</v>
+        <v>0.01889802222074789</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.05878897072156497</v>
+        <v>0.0792058023404483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9194519060039666</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008228985373276607</v>
+        <v>-0.01354273611591852</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1114573331410788</v>
+        <v>0.01912439436641028</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07803785648467794</v>
+        <v>0.07201274384547182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.92041911077476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.04064231168747302</v>
+        <v>0.01192603574287862</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002115049799850001</v>
+        <v>0.003335417073743878</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1013129739566922</v>
+        <v>0.01334447024231665</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06722672123418988</v>
+        <v>0.08809867016160182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>4.205310478420692E-08</v>
+        <v>0.922332784293413</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.04462731563723647</v>
+        <v>-0.02086290891002961</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7921578938587708</v>
+        <v>0.7899467740281839</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/sugar-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.27650242874803493, 0.2473059352921494, 0.22368876536446608, 0.2650651106805935, 0.4148231065895015, 0.23266783219559437, 0.24716826330919148, 0.19328402907279793, 0.21036520904878678, 0.17430397655654778, 0.19441324726301387, 0.18868717834654988, 0.1990158199579622, 0.1956654914708275, 0.2097120307742413, 0.1855564931629684, 0.19637246978488584, 0.17975199203381023, 0.17428121219450082]</t>
+    <t>[0.9999999999999999, 0.2765024287480352, 0.24730593529214961, 0.22368876536446625, 0.2650651106805937, 0.41482310658950106, 0.23266783219559448, 0.2471682633091914, 0.19328402907279796, 0.21036520904878683, 0.17430397655654792, 0.19441324726301418, 0.18868717834654974, 0.19901581995796222, 0.19566549147082746, 0.20971203077424141, 0.18555649316296857, 0.1963724697848859, 0.17975199203381034, 0.17428121219450082]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2865652493659193, 0.2536966090007755, 0.23647302114734567, 0.26388517285298846, 0.28534726148662526, 0.2126390971948123, 0.22206088841954952, 0.18710997547316743, 0.17013249022154797, 0.1504470990959502, 0.18788480141933467, 0.1667622997722943, 0.20646199863349443, 0.16459115766088608, 0.18758420582371566, 0.1713078106224247, 0.17614104180344584, 0.1544029417985861, 0.15730089318608456]</t>
+    <t>[1.0, 0.28656524936591965, 0.2536966090007758, 0.23647302114734584, 0.26388517285298857, 0.2853472614866256, 0.21263909719481264, 0.22206088841954968, 0.1871099754731675, 0.17013249022154806, 0.15044709909595036, 0.1878848014193348, 0.16676229977229456, 0.20646199863349457, 0.16459115766088617, 0.18758420582371602, 0.1713078106224249, 0.17614104180344606, 0.15440294179858646, 0.15730089318608464]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.013033516628285575, -0.023964128964601913, -0.05253996601624041, -0.03387497693178653, 0.27604735862502033, 0.015955780864374405, 0.01821931347351153, -0.030449947667353167, -0.027320762833466457, -0.0699261422457061, -0.04847873239455806, -0.03288594114235811, -0.020915784563769493, 0.030542870029760333, 0.00495460224119161, -0.009515930843045126, -0.04552672124974095, -0.0317197586874379, -0.021228542782399905]</t>
+    <t>[1.0, 0.013033516628285571, -0.023964128964601903, -0.05253996601624041, -0.03387497693178653, 0.2760473586250203, 0.015955780864374425, 0.01821931347351153, -0.030449947667353157, -0.027320762833466464, -0.0699261422457061, -0.0484787323945581, -0.03288594114235813, -0.0209157845637695, 0.03054287002976033, 0.0049546022411916125, -0.009515930843045115, -0.045526721249740984, -0.03171975868743789, -0.021228542782399898]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.013934789526919726, -0.023613640150222596, -0.051903422328022225, -0.03325942608738673, 0.275855881748233, 0.01663166510376376, 0.01853587090887995, -0.030261012496108363, -0.026995927541476665, -0.06947620845214035, -0.04816459290216756, -0.03257512017260114, -0.02070943480622141, 0.031061685139023108, 0.0053927829773057195, -0.009149522523800737, -0.04554608681735547, -0.031238995389322486, -0.02119675418038461]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03271258947821372, 0.0012238041781187107, -0.023441013082385363, 0.005368262609537936, 0.20493357806707266, 0.0027742686247121968, 0.01200685294674964, -0.03481047948004237, -0.036417019883907956, -0.05873577257063197, -0.04297618931346965, -0.04466499820083468, -0.03604702878248634, 0.02029002251354862, -0.009950318283285764, -0.019808412445069697, -0.036840995848426726, -0.023401635521485505, -0.020653724902000105]</t>
+    <t>[1.0, 0.013934789526919726, -0.02361364015022259, -0.05190342232802221, -0.03325942608738676, 0.275855881748233, 0.01663166510376377, 0.018535870908879964, -0.03026101249610839, -0.026995927541476665, -0.06947620845214031, -0.04816459290216753, -0.03257512017260113, -0.020709434806221404, 0.03106168513902312, 0.005392782977305712, -0.009149522523800739, -0.045546086817355454, -0.031238995389322486, -0.021196754180384598]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.032712583366454176, 0.001223798110082287, -0.023441020092482914, 0.0053682566758387435, 0.20493358047318555, 0.002774267082631064, 0.012006852109103168, -0.034810480002080535, -0.03641702043522036, -0.058735775327063665, -0.0429761911365025, -0.04466499936568939, -0.036047028674228064, 0.02029002249766618, -0.00995031876362407, -0.01980841368833744, -0.03684099703491111, -0.02340163697138496, -0.02065372404873701]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005754839538796336</v>
+        <v>0.005754839538796333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.795922957307973</v>
+        <v>0.7959229573079721</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9349775784753364</v>
+        <v>0.4831981460023175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.5885009830465028</v>
+        <v>-0.588500983046501</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.5871451601940401</v>
+        <v>0.5871451601940381</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7156586940581252</v>
+        <v>0.7156586940581257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.008841838364523173</v>
+        <v>-0.00884183836452317</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003335417073743878</v>
+        <v>0.003335440818598204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.01334447024231665</v>
+        <v>0.01334447235649385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08809867016160182</v>
+        <v>0.08809868256599922</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.922332784293413</v>
+        <v>0.9223327779142496</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02086290891002961</v>
+        <v>-0.02086292096049744</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7899467740281839</v>
+        <v>0.7899467824576328</v>
       </c>
     </row>
   </sheetData>
